--- a/2023/(A) 8.xlsx
+++ b/2023/(A) 8.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="92">
   <si>
     <t>Տողի
 XX</t>
@@ -95,6 +95,9 @@
     <t>1.1. Արժեթղթեր
 (բացառությամբ
 Բաժնետոմսերի և</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
   <si>
     <t>ոոհց՝</t>
@@ -235,7 +238,7 @@
     <t>- փոխատվությունների ւբ/</t>
   </si>
   <si>
-    <t>521
+    <t>■521՜
 7</t>
   </si>
   <si>
@@ -505,7 +508,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -568,9 +571,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
@@ -1100,21 +1100,27 @@
       <c r="D11" s="15">
         <v>0.0</v>
       </c>
-      <c r="E11" s="18"/>
+      <c r="E11" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="F11" s="15">
         <v>0.0</v>
       </c>
       <c r="G11" s="15">
         <v>0.0</v>
       </c>
-      <c r="H11" s="18"/>
+      <c r="H11" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="I11" s="15">
         <v>0.0</v>
       </c>
       <c r="J11" s="15">
         <v>0.0</v>
       </c>
-      <c r="K11" s="18"/>
+      <c r="K11" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="L11" s="16">
         <v>0.0</v>
       </c>
@@ -1122,7 +1128,7 @@
     <row r="12">
       <c r="A12" s="17"/>
       <c r="B12" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="18"/>
@@ -1140,7 +1146,7 @@
         <v>8112.0</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="20">
         <v>9111.0</v>
@@ -1148,21 +1154,27 @@
       <c r="D13" s="15">
         <v>0.0</v>
       </c>
-      <c r="E13" s="18"/>
+      <c r="E13" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="F13" s="15">
         <v>0.0</v>
       </c>
       <c r="G13" s="15">
         <v>0.0</v>
       </c>
-      <c r="H13" s="18"/>
+      <c r="H13" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="I13" s="15">
         <v>0.0</v>
       </c>
       <c r="J13" s="15">
         <v>0.0</v>
       </c>
-      <c r="K13" s="18"/>
+      <c r="K13" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="L13" s="16">
         <v>0.0</v>
       </c>
@@ -1172,7 +1184,7 @@
         <v>8113.0</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="20">
         <v>6111.0</v>
@@ -1180,21 +1192,27 @@
       <c r="D14" s="15">
         <v>0.0</v>
       </c>
-      <c r="E14" s="18"/>
+      <c r="E14" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="F14" s="15">
         <v>0.0</v>
       </c>
       <c r="G14" s="15">
         <v>0.0</v>
       </c>
-      <c r="H14" s="18"/>
+      <c r="H14" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="I14" s="15">
         <v>0.0</v>
       </c>
       <c r="J14" s="15">
         <v>0.0</v>
       </c>
-      <c r="K14" s="18"/>
+      <c r="K14" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="L14" s="16">
         <v>0.0</v>
       </c>
@@ -1204,7 +1222,7 @@
         <v>8120.0</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="15">
@@ -1256,27 +1274,33 @@
         <v>8121.0</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="15">
         <v>1470208.4</v>
       </c>
-      <c r="E17" s="18"/>
+      <c r="E17" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="F17" s="15">
         <v>1470208.4</v>
       </c>
       <c r="G17" s="15">
         <v>0.0</v>
       </c>
-      <c r="H17" s="18"/>
+      <c r="H17" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="I17" s="15">
         <v>0.0</v>
       </c>
       <c r="J17" s="15">
         <v>0.0</v>
       </c>
-      <c r="K17" s="18"/>
+      <c r="K17" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="L17" s="16">
         <v>0.0</v>
       </c>
@@ -1284,7 +1308,7 @@
     <row r="18">
       <c r="A18" s="17"/>
       <c r="B18" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="18"/>
@@ -1304,29 +1328,35 @@
         <v>8122.0</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D19" s="15">
         <v>1470208.4</v>
       </c>
-      <c r="E19" s="18"/>
+      <c r="E19" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="F19" s="15">
         <v>1470208.4</v>
       </c>
       <c r="G19" s="15">
         <v>0.0</v>
       </c>
-      <c r="H19" s="18"/>
+      <c r="H19" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="I19" s="15">
         <v>0.0</v>
       </c>
       <c r="J19" s="15">
         <v>0.0</v>
       </c>
-      <c r="K19" s="18"/>
+      <c r="K19" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="L19" s="16">
         <v>0.0</v>
       </c>
@@ -1334,7 +1364,7 @@
     <row r="20">
       <c r="A20" s="17"/>
       <c r="B20" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="18"/>
@@ -1352,27 +1382,33 @@
         <v>8123.0</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="15">
         <v>0.0</v>
       </c>
-      <c r="E21" s="18"/>
+      <c r="E21" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="F21" s="15">
         <v>0.0</v>
       </c>
       <c r="G21" s="15">
         <v>0.0</v>
       </c>
-      <c r="H21" s="18"/>
+      <c r="H21" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="I21" s="15">
         <v>0.0</v>
       </c>
       <c r="J21" s="15">
         <v>0.0</v>
       </c>
-      <c r="K21" s="18"/>
+      <c r="K21" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="L21" s="16">
         <v>0.0</v>
       </c>
@@ -1382,27 +1418,33 @@
         <v>8124.0</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="15">
         <v>1470208.4</v>
       </c>
-      <c r="E22" s="18"/>
+      <c r="E22" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="F22" s="15">
         <v>1470208.4</v>
       </c>
       <c r="G22" s="15">
         <v>0.0</v>
       </c>
-      <c r="H22" s="18"/>
+      <c r="H22" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="I22" s="15">
         <v>0.0</v>
       </c>
       <c r="J22" s="15">
         <v>0.0</v>
       </c>
-      <c r="K22" s="18"/>
+      <c r="K22" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="L22" s="16">
         <v>0.0</v>
       </c>
@@ -1412,29 +1454,35 @@
         <v>8130.0</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D23" s="15">
         <v>0.0</v>
       </c>
-      <c r="E23" s="18"/>
+      <c r="E23" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="F23" s="15">
         <v>0.0</v>
       </c>
       <c r="G23" s="15">
         <v>0.0</v>
       </c>
-      <c r="H23" s="18"/>
+      <c r="H23" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="I23" s="15">
         <v>0.0</v>
       </c>
       <c r="J23" s="15">
         <v>0.0</v>
       </c>
-      <c r="K23" s="18"/>
+      <c r="K23" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="L23" s="16">
         <v>0.0</v>
       </c>
@@ -1458,27 +1506,33 @@
         <v>8131.0</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="15">
         <v>0.0</v>
       </c>
-      <c r="E25" s="18"/>
+      <c r="E25" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="F25" s="15">
         <v>0.0</v>
       </c>
       <c r="G25" s="15">
         <v>0.0</v>
       </c>
-      <c r="H25" s="18"/>
+      <c r="H25" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="I25" s="15">
         <v>0.0</v>
       </c>
       <c r="J25" s="15">
         <v>0.0</v>
       </c>
-      <c r="K25" s="18"/>
+      <c r="K25" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="L25" s="16">
         <v>0.0</v>
       </c>
@@ -1488,27 +1542,33 @@
         <v>8132.0</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="15">
         <v>0.0</v>
       </c>
-      <c r="E26" s="18"/>
+      <c r="E26" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="F26" s="15">
         <v>0.0</v>
       </c>
       <c r="G26" s="15">
         <v>0.0</v>
       </c>
-      <c r="H26" s="18"/>
+      <c r="H26" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="I26" s="15">
         <v>0.0</v>
       </c>
       <c r="J26" s="15">
         <v>0.0</v>
       </c>
-      <c r="K26" s="18"/>
+      <c r="K26" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="L26" s="16">
         <v>0.0</v>
       </c>
@@ -1518,7 +1578,7 @@
         <v>8140.0</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="15">
@@ -1552,7 +1612,7 @@
     <row r="28">
       <c r="A28" s="17"/>
       <c r="B28" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="18"/>
@@ -1570,10 +1630,10 @@
         <v>8141.0</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D29" s="15">
         <v>0.0</v>
@@ -1606,7 +1666,7 @@
     <row r="30">
       <c r="A30" s="17"/>
       <c r="B30" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="18"/>
@@ -1624,7 +1684,7 @@
         <v>8142.0</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="15">
@@ -1633,28 +1693,34 @@
       <c r="E31" s="15">
         <v>0.0</v>
       </c>
-      <c r="F31" s="18"/>
+      <c r="F31" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="G31" s="15">
         <v>0.0</v>
       </c>
       <c r="H31" s="15">
         <v>0.0</v>
       </c>
-      <c r="I31" s="18"/>
+      <c r="I31" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="J31" s="15">
         <v>0.0</v>
       </c>
       <c r="K31" s="15">
         <v>0.0</v>
       </c>
-      <c r="L31" s="19"/>
+      <c r="L31" s="19" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="12">
         <v>8143.0</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="15">
@@ -1663,31 +1729,37 @@
       <c r="E32" s="15">
         <v>0.0</v>
       </c>
-      <c r="F32" s="18"/>
+      <c r="F32" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="G32" s="15">
         <v>0.0</v>
       </c>
       <c r="H32" s="15">
         <v>0.0</v>
       </c>
-      <c r="I32" s="18"/>
+      <c r="I32" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="J32" s="15">
         <v>0.0</v>
       </c>
       <c r="K32" s="15">
         <v>0.0</v>
       </c>
-      <c r="L32" s="19"/>
+      <c r="L32" s="19" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="12">
         <v>8150.0</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D33" s="15">
         <v>0.0</v>
@@ -1720,7 +1792,7 @@
     <row r="34">
       <c r="A34" s="17"/>
       <c r="B34" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="18"/>
@@ -1738,7 +1810,7 @@
         <v>8151.0</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="15">
@@ -1747,28 +1819,34 @@
       <c r="E35" s="15">
         <v>0.0</v>
       </c>
-      <c r="F35" s="18"/>
+      <c r="F35" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="G35" s="15">
         <v>0.0</v>
       </c>
       <c r="H35" s="15">
         <v>0.0</v>
       </c>
-      <c r="I35" s="18"/>
+      <c r="I35" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="J35" s="15">
         <v>0.0</v>
       </c>
       <c r="K35" s="15">
         <v>0.0</v>
       </c>
-      <c r="L35" s="19"/>
+      <c r="L35" s="19" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="12">
         <v>8152.0</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="15">
@@ -1777,28 +1855,34 @@
       <c r="E36" s="15">
         <v>0.0</v>
       </c>
-      <c r="F36" s="18"/>
+      <c r="F36" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="G36" s="15">
         <v>0.0</v>
       </c>
       <c r="H36" s="15">
         <v>0.0</v>
       </c>
-      <c r="I36" s="18"/>
+      <c r="I36" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="J36" s="15">
         <v>0.0</v>
       </c>
       <c r="K36" s="15">
         <v>0.0</v>
       </c>
-      <c r="L36" s="19"/>
+      <c r="L36" s="19" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="12">
         <v>8160.0</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="15">
@@ -1850,27 +1934,33 @@
         <v>8161.0</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C39" s="14"/>
       <c r="D39" s="15">
         <v>-2184447.9</v>
       </c>
-      <c r="E39" s="18"/>
+      <c r="E39" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="F39" s="15">
         <v>-2184447.9</v>
       </c>
       <c r="G39" s="15">
         <v>-2248947.9</v>
       </c>
-      <c r="H39" s="18"/>
+      <c r="H39" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="I39" s="15">
         <v>-2248947.9</v>
       </c>
       <c r="J39" s="15">
         <v>-2745119.3</v>
       </c>
-      <c r="K39" s="18"/>
+      <c r="K39" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="L39" s="16">
         <v>-2745119.3</v>
       </c>
@@ -1878,7 +1968,7 @@
     <row r="40">
       <c r="A40" s="17"/>
       <c r="B40" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C40" s="14"/>
       <c r="D40" s="18"/>
@@ -1896,25 +1986,31 @@
         <v>8162.0</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D41" s="15">
         <v>0.0</v>
       </c>
-      <c r="E41" s="18"/>
+      <c r="E41" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="F41" s="18"/>
       <c r="G41" s="15">
         <v>0.0</v>
       </c>
-      <c r="H41" s="18"/>
+      <c r="H41" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="I41" s="18"/>
       <c r="J41" s="15">
         <v>0.0</v>
       </c>
-      <c r="K41" s="18"/>
+      <c r="K41" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="L41" s="19"/>
     </row>
     <row r="42">
@@ -1922,29 +2018,35 @@
         <v>8163.0</v>
       </c>
       <c r="B42" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="14" t="s">
-        <v>49</v>
-      </c>
       <c r="D42" s="15">
         <v>0.0</v>
       </c>
-      <c r="E42" s="18"/>
+      <c r="E42" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="F42" s="15">
         <v>0.0</v>
       </c>
       <c r="G42" s="15">
         <v>500000.0</v>
       </c>
-      <c r="H42" s="18"/>
+      <c r="H42" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="I42" s="15">
         <v>500000.0</v>
       </c>
       <c r="J42" s="15">
         <v>0.0</v>
       </c>
-      <c r="K42" s="18"/>
+      <c r="K42" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="L42" s="16">
         <v>0.0</v>
       </c>
@@ -1954,29 +2056,35 @@
         <v>8164.0</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D43" s="15">
         <v>-2184447.9</v>
       </c>
-      <c r="E43" s="18"/>
+      <c r="E43" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="F43" s="15">
         <v>-2184447.9</v>
       </c>
       <c r="G43" s="15">
         <v>-2748947.9</v>
       </c>
-      <c r="H43" s="18"/>
+      <c r="H43" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="I43" s="15">
         <v>-2748947.9</v>
       </c>
       <c r="J43" s="15">
         <v>-2745119.3</v>
       </c>
-      <c r="K43" s="18"/>
+      <c r="K43" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="L43" s="16">
         <v>-2745119.3</v>
       </c>
@@ -1986,7 +2094,7 @@
         <v>8170.0</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="15">
@@ -2020,7 +2128,7 @@
     <row r="45">
       <c r="A45" s="17"/>
       <c r="B45" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C45" s="14"/>
       <c r="D45" s="18"/>
@@ -2038,10 +2146,10 @@
         <v>8171.0</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D46" s="15">
         <v>0.0</v>
@@ -2070,10 +2178,10 @@
         <v>8172.0</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C47" s="21" t="s">
         <v>57</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>58</v>
       </c>
       <c r="D47" s="15">
         <v>0.0</v>
@@ -2102,11 +2210,9 @@
         <v>8190.0</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C48" s="21" t="s">
-        <v>57</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C48" s="14"/>
       <c r="D48" s="15">
         <v>4975261.2</v>
       </c>
@@ -2138,7 +2244,7 @@
     <row r="49">
       <c r="A49" s="17"/>
       <c r="B49" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C49" s="14"/>
       <c r="D49" s="18"/>
@@ -2156,10 +2262,10 @@
         <v>8191.0</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D50" s="15">
         <v>2800405.6</v>
@@ -2167,26 +2273,32 @@
       <c r="E50" s="15">
         <v>2800405.6</v>
       </c>
-      <c r="F50" s="18"/>
+      <c r="F50" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="G50" s="15">
         <v>5497005.7</v>
       </c>
       <c r="H50" s="15">
         <v>5497005.7</v>
       </c>
-      <c r="I50" s="18"/>
+      <c r="I50" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="J50" s="15">
         <v>5497005.7</v>
       </c>
       <c r="K50" s="15">
         <v>5497005.7</v>
       </c>
-      <c r="L50" s="19"/>
+      <c r="L50" s="19" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="17"/>
       <c r="B51" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C51" s="14"/>
       <c r="D51" s="18"/>
@@ -2204,7 +2316,7 @@
         <v>8192.0</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C52" s="14"/>
       <c r="D52" s="15">
@@ -2213,28 +2325,34 @@
       <c r="E52" s="15">
         <v>0.0</v>
       </c>
-      <c r="F52" s="18"/>
+      <c r="F52" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="G52" s="15">
         <v>30433.2</v>
       </c>
       <c r="H52" s="15">
         <v>30433.2</v>
       </c>
-      <c r="I52" s="18"/>
+      <c r="I52" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="J52" s="15">
         <v>30433.2</v>
       </c>
       <c r="K52" s="15">
         <v>30433.2</v>
       </c>
-      <c r="L52" s="19"/>
+      <c r="L52" s="19" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="12">
         <v>8193.0</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C53" s="14"/>
       <c r="D53" s="15">
@@ -2243,31 +2361,37 @@
       <c r="E53" s="15">
         <v>2800405.6</v>
       </c>
-      <c r="F53" s="18"/>
+      <c r="F53" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="G53" s="15">
         <v>5466572.5</v>
       </c>
       <c r="H53" s="15">
         <v>5466572.5</v>
       </c>
-      <c r="I53" s="18"/>
+      <c r="I53" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="J53" s="15">
         <v>5466572.5</v>
       </c>
       <c r="K53" s="15">
         <v>5466572.5</v>
       </c>
-      <c r="L53" s="19"/>
+      <c r="L53" s="19" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="12">
         <v>8194.0</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D54" s="15">
         <v>2800405.6</v>
@@ -2275,57 +2399,69 @@
       <c r="E54" s="15">
         <v>2800405.6</v>
       </c>
-      <c r="F54" s="18"/>
+      <c r="F54" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="G54" s="15">
         <v>5497005.7</v>
       </c>
       <c r="H54" s="15">
         <v>5497005.7</v>
       </c>
-      <c r="I54" s="18"/>
+      <c r="I54" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="J54" s="15">
         <v>5497005.7</v>
       </c>
       <c r="K54" s="15">
         <v>5497005.7</v>
       </c>
-      <c r="L54" s="19"/>
+      <c r="L54" s="19" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="12">
         <v>8195.0</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D55" s="15">
         <v>0.0</v>
       </c>
       <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
+      <c r="F55" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="G55" s="15">
         <v>0.0</v>
       </c>
       <c r="H55" s="18"/>
-      <c r="I55" s="18"/>
+      <c r="I55" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="J55" s="15">
         <v>0.0</v>
       </c>
       <c r="K55" s="18"/>
-      <c r="L55" s="19"/>
+      <c r="L55" s="19" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="12">
         <v>8196.0</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D56" s="15">
         <v>4975261.2</v>
@@ -2358,7 +2494,7 @@
     <row r="57">
       <c r="A57" s="17"/>
       <c r="B57" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C57" s="14"/>
       <c r="D57" s="18"/>
@@ -2376,27 +2512,33 @@
         <v>8197.0</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C58" s="14"/>
       <c r="D58" s="15">
         <v>2174855.6</v>
       </c>
-      <c r="E58" s="18"/>
+      <c r="E58" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="F58" s="15">
         <v>2174855.6</v>
       </c>
       <c r="G58" s="15">
         <v>1.92347995E7</v>
       </c>
-      <c r="H58" s="18"/>
+      <c r="H58" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="I58" s="15">
         <v>1.92347995E7</v>
       </c>
       <c r="J58" s="15">
         <v>1.92347995E7</v>
       </c>
-      <c r="K58" s="18"/>
+      <c r="K58" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="L58" s="16">
         <v>1.92347995E7</v>
       </c>
@@ -2422,29 +2564,35 @@
         <v>8198.0</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D60" s="15">
         <v>2174855.6</v>
       </c>
-      <c r="E60" s="18"/>
+      <c r="E60" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="F60" s="15">
         <v>2174855.6</v>
       </c>
       <c r="G60" s="15">
         <v>1.92347995E7</v>
       </c>
-      <c r="H60" s="18"/>
+      <c r="H60" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="I60" s="15">
         <v>1.92347995E7</v>
       </c>
       <c r="J60" s="15">
         <v>1.92347995E7</v>
       </c>
-      <c r="K60" s="18"/>
+      <c r="K60" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="L60" s="16">
         <v>1.92347995E7</v>
       </c>
@@ -2454,25 +2602,31 @@
         <v>8199.0</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D61" s="15">
         <v>0.0</v>
       </c>
-      <c r="E61" s="18"/>
+      <c r="E61" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="F61" s="18"/>
       <c r="G61" s="15">
         <v>0.0</v>
       </c>
-      <c r="H61" s="18"/>
+      <c r="H61" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="I61" s="18"/>
       <c r="J61" s="15">
         <v>0.0</v>
       </c>
-      <c r="K61" s="18"/>
+      <c r="K61" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="L61" s="19"/>
     </row>
     <row r="62">
@@ -2480,27 +2634,33 @@
         <v>8200.0</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C62" s="14"/>
       <c r="D62" s="15">
         <v>2800405.6</v>
       </c>
-      <c r="E62" s="18"/>
+      <c r="E62" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="F62" s="15">
         <v>2800405.6</v>
       </c>
       <c r="G62" s="15">
         <v>5466572.5</v>
       </c>
-      <c r="H62" s="18"/>
+      <c r="H62" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="I62" s="15">
         <v>5466572.5</v>
       </c>
       <c r="J62" s="15">
         <v>5466572.5</v>
       </c>
-      <c r="K62" s="18"/>
+      <c r="K62" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="L62" s="16">
         <v>5466572.5</v>
       </c>
@@ -2510,15 +2670,27 @@
         <v>8201.0</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C63" s="14"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="18"/>
-      <c r="I63" s="18"/>
+      <c r="D63" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E63" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F63" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G63" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H63" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I63" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="J63" s="15">
         <v>0.0</v>
       </c>
@@ -2534,20 +2706,24 @@
         <v>8202.0</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C64" s="14"/>
       <c r="D64" s="15">
         <v>0.0</v>
       </c>
-      <c r="E64" s="18"/>
+      <c r="E64" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="F64" s="15">
         <v>0.0</v>
       </c>
       <c r="G64" s="15">
         <v>0.0</v>
       </c>
-      <c r="H64" s="18"/>
+      <c r="H64" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="I64" s="15">
         <v>0.0</v>
       </c>
@@ -2566,7 +2742,7 @@
         <v>8203.0</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C65" s="14"/>
       <c r="D65" s="15">
@@ -2602,7 +2778,7 @@
         <v>8204.0</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C66" s="14"/>
       <c r="D66" s="15">
@@ -2638,7 +2814,7 @@
         <v>8300.0</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C67" s="14"/>
       <c r="D67" s="15">
@@ -2672,7 +2848,7 @@
     <row r="68">
       <c r="A68" s="17"/>
       <c r="B68" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C68" s="14"/>
       <c r="D68" s="18"/>
@@ -2690,7 +2866,7 @@
         <v>8310.0</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C69" s="14"/>
       <c r="D69" s="15">
@@ -2724,7 +2900,7 @@
     <row r="70">
       <c r="A70" s="17"/>
       <c r="B70" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C70" s="14"/>
       <c r="D70" s="18"/>
@@ -2742,27 +2918,33 @@
         <v>8311.0</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C71" s="14"/>
       <c r="D71" s="15">
         <v>0.0</v>
       </c>
-      <c r="E71" s="18"/>
+      <c r="E71" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="F71" s="15">
         <v>0.0</v>
       </c>
       <c r="G71" s="15">
         <v>0.0</v>
       </c>
-      <c r="H71" s="18"/>
+      <c r="H71" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="I71" s="15">
         <v>0.0</v>
       </c>
       <c r="J71" s="15">
         <v>0.0</v>
       </c>
-      <c r="K71" s="18"/>
+      <c r="K71" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="L71" s="16">
         <v>0.0</v>
       </c>
@@ -2786,29 +2968,35 @@
         <v>8312.0</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D73" s="15">
         <v>0.0</v>
       </c>
-      <c r="E73" s="18"/>
+      <c r="E73" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="F73" s="15">
         <v>0.0</v>
       </c>
       <c r="G73" s="15">
         <v>0.0</v>
       </c>
-      <c r="H73" s="18"/>
+      <c r="H73" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="I73" s="15">
         <v>0.0</v>
       </c>
       <c r="J73" s="15">
         <v>0.0</v>
       </c>
-      <c r="K73" s="18"/>
+      <c r="K73" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="L73" s="16">
         <v>0.0</v>
       </c>
@@ -2818,7 +3006,7 @@
         <v>8313.0</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C74" s="20">
         <v>612.0</v>
@@ -2826,17 +3014,23 @@
       <c r="D74" s="15">
         <v>0.0</v>
       </c>
-      <c r="E74" s="18"/>
+      <c r="E74" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="F74" s="18"/>
       <c r="G74" s="15">
         <v>0.0</v>
       </c>
-      <c r="H74" s="18"/>
+      <c r="H74" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="I74" s="18"/>
       <c r="J74" s="15">
         <v>0.0</v>
       </c>
-      <c r="K74" s="18"/>
+      <c r="K74" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="L74" s="19"/>
     </row>
     <row r="75">
@@ -2844,7 +3038,7 @@
         <v>8320.0</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C75" s="14"/>
       <c r="D75" s="15">
@@ -2896,27 +3090,33 @@
         <v>8321.0</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C77" s="14"/>
       <c r="D77" s="15">
         <v>0.0</v>
       </c>
-      <c r="E77" s="18"/>
+      <c r="E77" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="F77" s="15">
         <v>0.0</v>
       </c>
       <c r="G77" s="15">
         <v>1470208.4</v>
       </c>
-      <c r="H77" s="18"/>
+      <c r="H77" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="I77" s="15">
         <v>1470208.4</v>
       </c>
       <c r="J77" s="15">
         <v>591625.2</v>
       </c>
-      <c r="K77" s="18"/>
+      <c r="K77" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="L77" s="16">
         <v>591625.2</v>
       </c>
@@ -2924,7 +3124,7 @@
     <row r="78">
       <c r="A78" s="17"/>
       <c r="B78" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C78" s="14"/>
       <c r="D78" s="18"/>
@@ -2942,29 +3142,35 @@
         <v>8322.0</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D79" s="15">
         <v>0.0</v>
       </c>
-      <c r="E79" s="18"/>
+      <c r="E79" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="F79" s="15">
         <v>0.0</v>
       </c>
       <c r="G79" s="15">
         <v>1470208.4</v>
       </c>
-      <c r="H79" s="18"/>
+      <c r="H79" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="I79" s="15">
         <v>1470208.4</v>
       </c>
       <c r="J79" s="15">
         <v>591625.2</v>
       </c>
-      <c r="K79" s="18"/>
+      <c r="K79" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="L79" s="16">
         <v>591625.2</v>
       </c>
@@ -2974,29 +3180,35 @@
         <v>8330.0</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D80" s="15">
         <v>0.0</v>
       </c>
-      <c r="E80" s="18"/>
+      <c r="E80" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="F80" s="15">
         <v>0.0</v>
       </c>
       <c r="G80" s="15">
         <v>0.0</v>
       </c>
-      <c r="H80" s="18"/>
+      <c r="H80" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="I80" s="15">
         <v>0.0</v>
       </c>
       <c r="J80" s="15">
         <v>0.0</v>
       </c>
-      <c r="K80" s="18"/>
+      <c r="K80" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="L80" s="16">
         <v>0.0</v>
       </c>
@@ -3006,7 +3218,7 @@
         <v>8340.0</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C81" s="14"/>
       <c r="D81" s="15">
@@ -3040,7 +3252,7 @@
     <row r="82">
       <c r="A82" s="17"/>
       <c r="B82" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C82" s="14"/>
       <c r="D82" s="18"/>
@@ -3058,10 +3270,10 @@
         <v>8341.0</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D83" s="15">
         <v>0.0</v>
@@ -3069,53 +3281,65 @@
       <c r="E83" s="15">
         <v>0.0</v>
       </c>
-      <c r="F83" s="18"/>
+      <c r="F83" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="G83" s="15">
         <v>0.0</v>
       </c>
       <c r="H83" s="15">
         <v>0.0</v>
       </c>
-      <c r="I83" s="18"/>
+      <c r="I83" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="J83" s="15">
         <v>0.0</v>
       </c>
       <c r="K83" s="15">
         <v>0.0</v>
       </c>
-      <c r="L83" s="19"/>
+      <c r="L83" s="19" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="84">
-      <c r="A84" s="22">
+      <c r="A84" s="21">
         <v>8350.0</v>
       </c>
-      <c r="B84" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="C84" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="D84" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="E84" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="F84" s="26"/>
-      <c r="G84" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="H84" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="I84" s="26"/>
-      <c r="J84" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="K84" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="L84" s="27"/>
+      <c r="B84" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C84" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D84" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="E84" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="F84" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G84" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="H84" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="I84" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="J84" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="K84" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="L84" s="26" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
